--- a/Excel/group_project.xlsx
+++ b/Excel/group_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\AICT\our Final Project\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\Final AICT Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A93CC4-A81E-4389-9086-24658E3899D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8727DB0-E67A-492B-B8B1-A4D8D2FDD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team members &amp; salary" sheetId="1" r:id="rId1"/>
@@ -4299,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4330,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="18">
-        <v>13900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="18">
-        <v>27800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="18">
-        <v>16680</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="18">
-        <v>11120</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="18">
-        <v>13900</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="18">
-        <v>22240</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="18">
-        <v>41700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="18">
-        <v>55600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4418,7 +4418,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="18">
-        <v>69500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4429,7 +4429,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="18">
-        <v>12510</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4440,7 +4440,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="18">
-        <v>13900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4451,7 +4451,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="18">
-        <v>19460</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4462,7 +4462,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="18">
-        <v>16680</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="18">
-        <v>22240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="18">
-        <v>27800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="18">
-        <v>30580</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="18">
-        <v>41700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4517,7 +4517,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="18">
-        <v>50040</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="18">
-        <v>11120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="18">
-        <v>16680</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4550,7 +4550,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="18">
-        <v>22240</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4561,7 +4561,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="18">
-        <v>13900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="18">
-        <v>22240</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4583,7 +4583,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="18">
-        <v>25020</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="18">
-        <v>11120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="18">
-        <v>16680</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,7 +4616,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="18">
-        <v>25020</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4627,7 +4627,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="18">
-        <v>30580</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,7 +4638,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="18">
-        <v>41700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4649,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="18">
-        <v>44480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4660,7 +4660,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="18">
-        <v>13900</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4671,7 +4671,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="18">
-        <v>27800</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4682,7 +4682,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="18">
-        <v>41700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4693,7 +4693,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="18">
-        <v>11120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="18">
-        <v>16680</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4715,7 +4715,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="18">
-        <v>22240</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4726,7 +4726,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="18">
-        <v>55600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4737,7 +4737,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="18">
-        <v>69500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="18">
-        <v>97300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4759,7 +4759,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="18">
-        <v>16680</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="18">
-        <v>22240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4781,7 +4781,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="18">
-        <v>26410</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="18">
-        <v>11120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="18">
-        <v>22240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4814,7 +4814,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="18">
-        <v>25020</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="18">
-        <v>27800</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4836,7 +4836,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="18">
-        <v>41700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4847,7 +4847,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="18">
-        <v>55600</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5037,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D60"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
